--- a/Data_Files/GSE.Arranged.Asc_order20.xlsx
+++ b/Data_Files/GSE.Arranged.Asc_order20.xlsx
@@ -53,12 +53,12 @@
     <t>GO:0002181</t>
   </si>
   <si>
+    <t>GO:0006418</t>
+  </si>
+  <si>
     <t>GO:0043038</t>
   </si>
   <si>
-    <t>GO:0006418</t>
-  </si>
-  <si>
     <t>GO:0043039</t>
   </si>
   <si>
@@ -95,16 +95,16 @@
     <t>GO:0046341</t>
   </si>
   <si>
-    <t>GO:0090136</t>
-  </si>
-  <si>
     <t>GO:0042254</t>
   </si>
   <si>
     <t>GO:0006399</t>
   </si>
   <si>
-    <t>GO:0097501</t>
+    <t>GO:0006520</t>
+  </si>
+  <si>
+    <t>GO:0048704</t>
   </si>
   <si>
     <t>mitochondrial translation</t>
@@ -113,12 +113,12 @@
     <t>cytoplasmic translation</t>
   </si>
   <si>
+    <t>tRNA aminoacylation for protein translation</t>
+  </si>
+  <si>
     <t>amino acid activation</t>
   </si>
   <si>
-    <t>tRNA aminoacylation for protein translation</t>
-  </si>
-  <si>
     <t>tRNA aminoacylation</t>
   </si>
   <si>
@@ -155,16 +155,16 @@
     <t>CDP-diacylglycerol metabolic process</t>
   </si>
   <si>
-    <t>epithelial cell-cell adhesion</t>
-  </si>
-  <si>
     <t>ribosome biogenesis</t>
   </si>
   <si>
     <t>tRNA metabolic process</t>
   </si>
   <si>
-    <t>stress response to metal ion</t>
+    <t>amino acid metabolic process</t>
+  </si>
+  <si>
+    <t>embryonic skeletal system morphogenesis</t>
   </si>
   <si>
     <t>tags=40%, list=21%, signal=32%</t>
@@ -173,12 +173,12 @@
     <t>tags=44%, list=17%, signal=36%</t>
   </si>
   <si>
+    <t>tags=60%, list=27%, signal=44%</t>
+  </si>
+  <si>
     <t>tags=59%, list=28%, signal=43%</t>
   </si>
   <si>
-    <t>tags=60%, list=27%, signal=44%</t>
-  </si>
-  <si>
     <t>tags=58%, list=28%, signal=42%</t>
   </si>
   <si>
@@ -209,16 +209,16 @@
     <t>tags=50%, list=10%, signal=45%</t>
   </si>
   <si>
-    <t>tags=31%, list=4%, signal=30%</t>
-  </si>
-  <si>
     <t>tags=35%, list=24%, signal=27%</t>
   </si>
   <si>
     <t>tags=30%, list=20%, signal=25%</t>
   </si>
   <si>
-    <t>tags=56%, list=21%, signal=45%</t>
+    <t>tags=32%, list=22%, signal=25%</t>
+  </si>
+  <si>
+    <t>tags=35%, list=21%, signal=28%</t>
   </si>
   <si>
     <t>LARS2/UQCC2/MRPS22/MRPL47/PTCD3/AURKAIP1/MRPL9/TARS2/MRPL33/MTG1/MRPL41/DARS2/MRPL16/C1QBP/MRPS18A/MRPL24/MRPL19/SARS2/WARS2/MRPL28/MRPL12/MRPL57/MRPL53/GADD45GIP1/TRUB2/EARS2/MRPS15/MRPS33/TUFM/MRPL55/MRPS21/HARS1/TACO1/MRPL37/CDK5RAP1/METTL8/RPUSD4/MTIF2/MRPL23/GARS1/MRPL2/MTIF3/MRPL52/MRPL40/DAP3/MRPL51/MRPS2/MRPS9/MRPL3/MRPS27/MRPS31</t>
@@ -227,12 +227,12 @@
     <t>RPS11/RPS20/AARS1/RBM24/YBX3/FTSJ1/EIF3E/RPS3/RPL37A/RPL13/MCTS1/UBA52/RPL3/ZNF385A/MTOR/EIF3I/EIF3D/RPL5/RPL15/RPS16/RPS21/RBM4/RPS19/RPL38/EIF3A/RPL11/RPL8/PKM/EIF3M/NMNAT2/RACK1/EIF2S3/RPL28/EIF4G1/RPL36/RPS6/RPL23/RPS17/RPL22L1/RPL14/EIF3H/RPL22/RPS24/RPL4</t>
   </si>
   <si>
+    <t>QARS1/FARS2/TARS3/PARS2/YARS2/CARS2/LARS2/DALRD3/VARS2/TARS2/FARSA/DARS2/AARS1/SARS2/WARS2/LARS1/EARS2/HARS1/KARS1/GARS1/NARS1/EPRS1/DARS1/FARSB</t>
+  </si>
+  <si>
     <t>GATC/QARS1/FARS2/TARS3/PARS2/YARS2/CARS2/LARS2/DALRD3/VARS2/TARS2/FARSA/DARS2/AARS1/SARS2/WARS2/AASDH/LARS1/EARS2/HARS1/KARS1/GARS1/NARS1/EPRS1/DARS1/FARSB</t>
   </si>
   <si>
-    <t>QARS1/FARS2/TARS3/PARS2/YARS2/CARS2/LARS2/DALRD3/VARS2/TARS2/FARSA/DARS2/AARS1/SARS2/WARS2/LARS1/EARS2/HARS1/KARS1/GARS1/NARS1/EPRS1/DARS1/FARSB</t>
-  </si>
-  <si>
     <t>GATC/QARS1/FARS2/TARS3/PARS2/YARS2/CARS2/LARS2/DALRD3/VARS2/TARS2/FARSA/DARS2/AARS1/SARS2/WARS2/LARS1/EARS2/HARS1/KARS1/GARS1/NARS1/EPRS1/DARS1/FARSB</t>
   </si>
   <si>
@@ -266,16 +266,16 @@
     <t>LCLAT1/CDS2/AGPAT1/GPAT4/GPAM/AGPAT3</t>
   </si>
   <si>
-    <t>SRF/VCL/THBS4/CCN3/JUP</t>
-  </si>
-  <si>
     <t>SURF6/RRP9/ZNHIT6/LYAR/PWP1/SDAD1/NIFK/RPL35A/TSR3/NUP88/NOLC1/HEATR1/RIOK1/RPS14/PELP1/NMD3/ERCC2/EIF2A/PES1/XPO1/NOP14/IMP4/PAK1IP1/RPP30/DCAF13/EXOSC5/C1QBP/TRAF7/RPS11/ZCCHC4/NPM3/URB2/NOL9/PPAN/GTF3A/RSL1D1/NOP56/NOA1/EXOSC7/BMS1/TSC1/NPM1/FTSJ3/YBEY/NAF1/NAT10/RPL5/SUV39H1/MYBBP1A/ISG20/RPS16/RPS21/RPS19/DDX52/WDR43/RPL38/FBL/RPP40/SERBP1/RPUSD1/RRP12/ZNF593/WDR3/MPHOSPH10/RPL11/UTP4/DDX10/RBFA/NOP16/NOB1/GNL2/RPF2/WDR75/MDN1/RPP38/RPUSD4/NOP58/SHQ1/RPS27L/PRKDC/HABP4/EIF5B/DDX27/RPL10L/NOP53/RPS6/NOP2/WDR74/PIH1D2/MRPS2/POP5/PDCD11/RPS17/URB1/TFB1M/MRTO4/RPL14/RPS24/RRP1B</t>
   </si>
   <si>
     <t>TRPT1/CTU2/DALRD3/HSD17B10/VARS2/TARS2/TRMT5/FARSA/RPP30/ELP2/DARS2/ELP3/ZBTB8OS/AARS1/TRMT6/FTSJ1/SARS2/WARS2/TRMU/LARS1/DUS1L/POP1/WDR4/EXOSC7/GTF3C5/PUS1/NAT10/GTF3C1/TRUB2/PUS7/EARS2/RPP40/THADA/METTL1/PUS3/TP53RK/HARS1/PRORP/DTWD2/ZCCHC7/CDK5RAP1/METTL8/ADAT2/DTD1/RPP38/TRMT9B/KARS1/RPUSD4/GARS1/ANG/RTRAF/NARS1/NSUN6/POP5/EPRS1/DARS1/FARSB</t>
   </si>
   <si>
-    <t>ABCB6/MT2A/MT4/MUC2/SLC30A1/MT1M/MT1X/MT1G/MT1F</t>
+    <t>GAD2/GOT1/ACAT1/ACCS/LARS2/SLC25A21/ACMSD/ATP2B4/GLYATL1/GCLC/DALRD3/FPGS/HSD17B10/VARS2/BCAT1/ABAT/TARS2/BPHL/HOGA1/SLC25A2/FARSA/CTH/ASPG/DARS2/ENOSF1/NR1H4/PYCR1/AARS1/CARNS1/PCCA/DGLUCY/SARS2/WARS2/AASDH/LARS1/HAO1/PLOD3/MECP2/CSAD/GLYAT/EARS2/GLS2/OTC/MTR/ASRGL1/UROC1/HARS1/GPT2/ACADSB/BCKDHB/CRYM/ARG2/PFAS/MCCC1/RIMKLB/KARS1/ASL/HAL/PSAT1/GOT2/KYAT3/NIT2/GARS1/THAP4/ALDH8A1/MTHFD1/KYAT1/ASNS/HGD/ODC1/AASS/ADSS2/AMT/NARS1/ALDH18A1/GCAT/ALDH6A1/AADAT/MCCC2/CAD/SLC7A11/HYKK/EPRS1/DDAH1/DARS1/FARSB</t>
+  </si>
+  <si>
+    <t>MDFI/HOXB8/ZEB1/PAX5/RUNX2/SIX1/SHOX2/PCGF2/HOXB6/ALX3/SIX2/HOXA1/HOXA4/NDST1/OSR2/HOXA5/COL2A1/HOXA7/FLVCR1/MTHFD1/TULP3/HOXB3/FGFR2/MTHFD1L/HOXD9/HOXA3/HOXB2/MMP14/HOXB5/HOXB4/HOXD10/IRX5</t>
   </si>
 </sst>
 </file>
@@ -379,16 +379,16 @@
         <v>-0.5235750132207873</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.9881733881888515</v>
+        <v>-1.9894491928828537</v>
       </c>
       <c r="G2" t="n">
-        <v>1.942124684404739E-4</v>
+        <v>1.9496977968414895E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J2" t="n">
         <v>4145.0</v>
@@ -417,16 +417,16 @@
         <v>-0.5394462431237067</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.9778409021767642</v>
+        <v>-1.9854970767360718</v>
       </c>
       <c r="G3" t="n">
-        <v>1.9406171162429653E-4</v>
+        <v>1.9413706076490002E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J3" t="n">
         <v>3252.0</v>
@@ -449,25 +449,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6163955155528319</v>
+        <v>-0.6281885786110722</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.9551176028831765</v>
+        <v>-1.9538900554333305</v>
       </c>
       <c r="G4" t="n">
-        <v>1.928268414963363E-4</v>
+        <v>1.926040061633282E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J4" t="n">
-        <v>5388.0</v>
+        <v>5247.0</v>
       </c>
       <c r="K4" t="s">
         <v>53</v>
@@ -487,25 +487,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6281885786110722</v>
+        <v>-0.6163955155528319</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.9540525696138074</v>
+        <v>-1.9517582381282115</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9342359767891682E-4</v>
+        <v>1.9338619222587506E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J5" t="n">
-        <v>5247.0</v>
+        <v>5388.0</v>
       </c>
       <c r="K5" t="s">
         <v>54</v>
@@ -531,16 +531,16 @@
         <v>-0.6132503880543174</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.9376116782060275</v>
+        <v>-1.9338503100769702</v>
       </c>
       <c r="G6" t="n">
-        <v>1.921598770176787E-4</v>
+        <v>1.9327406262079628E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J6" t="n">
         <v>5388.0</v>
@@ -569,16 +569,16 @@
         <v>-0.49413805529589416</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.9371946523157124</v>
+        <v>-1.931373767395244</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9462826002335538E-4</v>
+        <v>1.951219512195122E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J7" t="n">
         <v>4145.0</v>
@@ -607,16 +607,16 @@
         <v>-0.8410496490632892</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.8672726031096123</v>
+        <v>-1.8698519011730148</v>
       </c>
       <c r="G8" t="n">
-        <v>7.541478129713424E-4</v>
+        <v>1.9007793195210037E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009383816017107633</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00725818326766881</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J8" t="n">
         <v>865.0</v>
@@ -645,16 +645,16 @@
         <v>-0.7162192918537433</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.8385563279421822</v>
+        <v>-1.8320119827409451</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0011372251705837756</v>
+        <v>0.0017133066818960593</v>
       </c>
       <c r="H9" t="n">
-        <v>0.012548489746767458</v>
+        <v>0.019681610508280982</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009705991480273554</v>
+        <v>0.01538433462296518</v>
       </c>
       <c r="J9" t="n">
         <v>982.0</v>
@@ -683,16 +683,16 @@
         <v>-0.5618767367196789</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.8141711839068226</v>
+        <v>-1.810345803681094</v>
       </c>
       <c r="G10" t="n">
-        <v>3.837298541826554E-4</v>
+        <v>1.9402405898331392E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005638175169942821</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004361009274271596</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J10" t="n">
         <v>3312.0</v>
@@ -721,16 +721,16 @@
         <v>-0.6335692485940687</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.7864439528737848</v>
+        <v>-1.783364523568969</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0021231422505307855</v>
+        <v>0.0024794964714857904</v>
       </c>
       <c r="H11" t="n">
-        <v>0.020415805826105447</v>
+        <v>0.0259404226491786</v>
       </c>
       <c r="I11" t="n">
-        <v>0.015791194112593856</v>
+        <v>0.02027659993211421</v>
       </c>
       <c r="J11" t="n">
         <v>3923.0</v>
@@ -759,16 +759,16 @@
         <v>-0.5267499947955573</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.7790421075741885</v>
+        <v>-1.7783878700369609</v>
       </c>
       <c r="G12" t="n">
-        <v>5.801585766776252E-4</v>
+        <v>1.9443904335990667E-4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00782423506030852</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006051880375052708</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J12" t="n">
         <v>5329.0</v>
@@ -797,16 +797,16 @@
         <v>-0.6556383977141353</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.7668339537798716</v>
+        <v>-1.7698854520498917</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002503369921047564</v>
+        <v>0.0026661588268901163</v>
       </c>
       <c r="H13" t="n">
-        <v>0.022276608435711484</v>
+        <v>0.02745309807139926</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01723048558429941</v>
+        <v>0.021458998337040798</v>
       </c>
       <c r="J13" t="n">
         <v>3265.0</v>
@@ -835,16 +835,16 @@
         <v>-0.5773081938583551</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.7534622349594782</v>
+        <v>-1.761354366339079</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0021409108602569093</v>
+        <v>9.574875526618154E-4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.020525304864430247</v>
+        <v>0.012647879725407513</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01587588930337189</v>
+        <v>0.009886346134368297</v>
       </c>
       <c r="J14" t="n">
         <v>5109.0</v>
@@ -873,16 +873,16 @@
         <v>-0.7896941181204891</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.7532546303841727</v>
+        <v>-1.7556764333203219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003582202111613876</v>
+        <v>0.0034214027751378064</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02943078695276126</v>
+        <v>0.03280161557743891</v>
       </c>
       <c r="I15" t="n">
-        <v>0.022764091391542375</v>
+        <v>0.0256397224203205</v>
       </c>
       <c r="J15" t="n">
         <v>2588.0</v>
@@ -911,16 +911,16 @@
         <v>-0.7422603511034067</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.737572773034782</v>
+        <v>-1.7381086465765234</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003960022628700735</v>
+        <v>0.004536862003780718</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03176412165889255</v>
+        <v>0.03891417769376181</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02456887644818005</v>
+        <v>0.030417669883593675</v>
       </c>
       <c r="J16" t="n">
         <v>1864.0</v>
@@ -949,16 +949,16 @@
         <v>-0.7422603511034067</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.737572773034782</v>
+        <v>-1.7381086465765234</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003960022628700735</v>
+        <v>0.004536862003780718</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03176412165889255</v>
+        <v>0.03891417769376181</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02456887644818005</v>
+        <v>0.030417669883593675</v>
       </c>
       <c r="J17" t="n">
         <v>1864.0</v>
@@ -981,25 +981,25 @@
         <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>16.0</v>
+        <v>282.0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6756684769874808</v>
+        <v>-0.4071151026330751</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.705010630476551</v>
+        <v>-1.6946860540348132</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0064860740175505536</v>
+        <v>1.9290123456790122E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04535316755967686</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0350797161109399</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J18" t="n">
-        <v>820.0</v>
+        <v>4646.0</v>
       </c>
       <c r="K18" t="s">
         <v>65</v>
@@ -1019,25 +1019,25 @@
         <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>282.0</v>
+        <v>187.0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4071151026330751</v>
+        <v>-0.4237305140781403</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.7011869155331658</v>
+        <v>-1.6888560029054196</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9657951641438963E-4</v>
+        <v>1.9440124416796267E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J19" t="n">
-        <v>4646.0</v>
+        <v>3918.0</v>
       </c>
       <c r="K19" t="s">
         <v>66</v>
@@ -1057,25 +1057,25 @@
         <v>49</v>
       </c>
       <c r="D20" t="n">
-        <v>187.0</v>
+        <v>273.0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4237305140781403</v>
+        <v>-0.40119529202550347</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.6928378404422526</v>
+        <v>-1.6665448175760942</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9646365422396856E-4</v>
+        <v>1.9227071716977504E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J20" t="n">
-        <v>3918.0</v>
+        <v>4213.0</v>
       </c>
       <c r="K20" t="s">
         <v>67</v>
@@ -1095,25 +1095,25 @@
         <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>16.0</v>
+        <v>91.0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6682088053044646</v>
+        <v>-0.46056013716445243</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.6861865770352609</v>
+        <v>-1.6664777471793504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007439908431896223</v>
+        <v>5.836575875486381E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.049935701218959995</v>
+        <v>0.008572304248174404</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03862420899834307</v>
+        <v>0.006700630367026783</v>
       </c>
       <c r="J21" t="n">
-        <v>4046.0</v>
+        <v>4014.0</v>
       </c>
       <c r="K21" t="s">
         <v>68</v>
